--- a/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业企业商品销售额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业企业商品销售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1393 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1255</v>
+      </c>
+      <c r="C2" t="n">
+        <v>75.90000000000001</v>
+      </c>
       <c r="D2" t="n">
-        <v>241.7353</v>
+        <v>2511.7</v>
       </c>
       <c r="E2" t="n">
-        <v>234.73</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>604.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4641.1</v>
+      </c>
       <c r="G2" t="n">
-        <v>18.3057</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1309</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1157.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3298.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1317.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8309.5</v>
+      </c>
       <c r="L2" t="n">
-        <v>226.1031</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>27460.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>18608.7</v>
+      </c>
       <c r="N2" t="n">
-        <v>2807.5615</v>
+        <v>8646.700000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>120.7002</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>1966.9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>16176</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2399</v>
+      </c>
       <c r="R2" t="n">
-        <v>49.9618</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>845</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6804.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>320.8</v>
+      </c>
       <c r="V2" t="n">
-        <v>679.8875</v>
+        <v>1037.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1664.9059</v>
+      </c>
+      <c r="C3" t="n">
+        <v>94.13849999999999</v>
+      </c>
       <c r="D3" t="n">
-        <v>294.3693</v>
+        <v>2847.6972</v>
       </c>
       <c r="E3" t="n">
-        <v>242.0881</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>740.5838</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6010.4764</v>
+      </c>
       <c r="G3" t="n">
-        <v>20.2202</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1696.4202</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1773.9225</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4147.4687</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1726.8606</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11473.6401</v>
+      </c>
       <c r="L3" t="n">
-        <v>436.139</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>33963.4962</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21770.5528</v>
+      </c>
       <c r="N3" t="n">
-        <v>3435.8174</v>
+        <v>10827.8844</v>
       </c>
       <c r="O3" t="n">
-        <v>125.2481</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>2632.6476</v>
+      </c>
+      <c r="P3" t="n">
+        <v>19327.8363</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2675.2993</v>
+      </c>
       <c r="R3" t="n">
-        <v>107.4253</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>1206.1884</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7541.6341</v>
+      </c>
+      <c r="T3" t="n">
+        <v>517.5876</v>
+      </c>
+      <c r="U3" t="n">
+        <v>527.6544</v>
+      </c>
       <c r="V3" t="n">
-        <v>463.7538</v>
+        <v>1907.4834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2067.01057</v>
+      </c>
+      <c r="C4" t="n">
+        <v>144.08919</v>
+      </c>
       <c r="D4" t="n">
-        <v>396.07794</v>
+        <v>3863.80084</v>
       </c>
       <c r="E4" t="n">
-        <v>271.53757</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>831.4911499999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6903.06255</v>
+      </c>
       <c r="G4" t="n">
-        <v>18.72416</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>2078.07177</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2807.87495</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3610.18857</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2229.02696</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12570.47146</v>
+      </c>
       <c r="L4" t="n">
-        <v>879.46002</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>38292.54223</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24953.17722</v>
+      </c>
       <c r="N4" t="n">
-        <v>3822.06893</v>
+        <v>12195.44544</v>
       </c>
       <c r="O4" t="n">
-        <v>127.78601</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>3378.1246</v>
+      </c>
+      <c r="P4" t="n">
+        <v>21645.54384</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3606.51767</v>
+      </c>
       <c r="R4" t="n">
-        <v>151.10511</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>1591.37262</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8511.60138</v>
+      </c>
+      <c r="T4" t="n">
+        <v>728.41455</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1122.3</v>
+      </c>
       <c r="V4" t="n">
-        <v>463.27597</v>
+        <v>2405.2982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>175.37883</v>
+        <v>2826.87696</v>
       </c>
       <c r="C5" t="n">
-        <v>6.91434</v>
+        <v>202.45044</v>
       </c>
       <c r="D5" t="n">
-        <v>443.87452</v>
+        <v>4726.39801</v>
       </c>
       <c r="E5" t="n">
-        <v>270.58028</v>
+        <v>931.51536</v>
       </c>
       <c r="F5" t="n">
-        <v>1022.87759</v>
+        <v>7759.18199</v>
       </c>
       <c r="G5" t="n">
-        <v>384.9529</v>
+        <v>3035.04344</v>
       </c>
       <c r="H5" t="n">
-        <v>100.67018</v>
+        <v>3494.83363</v>
       </c>
       <c r="I5" t="n">
-        <v>769.45559</v>
+        <v>3298.01896</v>
       </c>
       <c r="J5" t="n">
-        <v>117.19631</v>
+        <v>2620.26135</v>
       </c>
       <c r="K5" t="n">
-        <v>515.75994</v>
+        <v>14159.10732</v>
       </c>
       <c r="L5" t="n">
-        <v>2055.98842</v>
+        <v>45467.9062</v>
       </c>
       <c r="M5" t="n">
-        <v>1404.61749</v>
+        <v>30398.00772</v>
       </c>
       <c r="N5" t="n">
-        <v>3030.99293</v>
+        <v>13784.61278</v>
       </c>
       <c r="O5" t="n">
-        <v>259.30393</v>
+        <v>4061.24435</v>
       </c>
       <c r="P5" t="n">
-        <v>4981.7515</v>
+        <v>24421.34205</v>
       </c>
       <c r="Q5" t="n">
-        <v>423.06922</v>
+        <v>4380.63327</v>
       </c>
       <c r="R5" t="n">
-        <v>142.50949</v>
+        <v>1999.98295</v>
       </c>
       <c r="S5" t="n">
-        <v>1776.67393</v>
+        <v>9502.67519</v>
       </c>
       <c r="T5" t="n">
-        <v>96.38936</v>
+        <v>858.07161</v>
       </c>
       <c r="U5" t="n">
-        <v>4.72697</v>
+        <v>1607.64329</v>
       </c>
       <c r="V5" t="n">
-        <v>264.08526</v>
+        <v>2694.4314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267.72546</v>
+        <v>3119.9658</v>
       </c>
       <c r="C6" t="n">
-        <v>17.02352</v>
+        <v>148.58004</v>
       </c>
       <c r="D6" t="n">
-        <v>748.63483</v>
+        <v>5592.25368</v>
       </c>
       <c r="E6" t="n">
-        <v>344.24671</v>
+        <v>1019.51545</v>
       </c>
       <c r="F6" t="n">
-        <v>1630.77174</v>
+        <v>8629.544320000001</v>
       </c>
       <c r="G6" t="n">
-        <v>488.10654</v>
+        <v>3310.63961</v>
       </c>
       <c r="H6" t="n">
-        <v>222.2926</v>
+        <v>4944.2736</v>
       </c>
       <c r="I6" t="n">
-        <v>1050.63261</v>
+        <v>3478.44763</v>
       </c>
       <c r="J6" t="n">
-        <v>239.50676</v>
+        <v>2843.84838</v>
       </c>
       <c r="K6" t="n">
-        <v>1349.27</v>
+        <v>15532.46211</v>
       </c>
       <c r="L6" t="n">
-        <v>5080.39439</v>
+        <v>51052.49933</v>
       </c>
       <c r="M6" t="n">
-        <v>3544.26308</v>
+        <v>34415.61628</v>
       </c>
       <c r="N6" t="n">
-        <v>3049.46563</v>
+        <v>14685.37845</v>
       </c>
       <c r="O6" t="n">
-        <v>400.72895</v>
+        <v>4605.00338</v>
       </c>
       <c r="P6" t="n">
-        <v>5771.44552</v>
+        <v>26030.47168</v>
       </c>
       <c r="Q6" t="n">
-        <v>672.8104499999999</v>
+        <v>5179.88592</v>
       </c>
       <c r="R6" t="n">
-        <v>285.12334</v>
+        <v>2353.28438</v>
       </c>
       <c r="S6" t="n">
-        <v>2503.02748</v>
+        <v>10110.98864</v>
       </c>
       <c r="T6" t="n">
-        <v>236.42396</v>
+        <v>905.86227</v>
       </c>
       <c r="U6" t="n">
-        <v>9.02093</v>
+        <v>3006.12636</v>
       </c>
       <c r="V6" t="n">
-        <v>329.9082</v>
+        <v>3356.73731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>267.95189</v>
+        <v>3486.905</v>
       </c>
       <c r="C7" t="n">
-        <v>15.99121</v>
+        <v>178.758</v>
       </c>
       <c r="D7" t="n">
-        <v>764.0902</v>
+        <v>6036.2141</v>
       </c>
       <c r="E7" t="n">
-        <v>379.5698</v>
+        <v>1034.8852</v>
       </c>
       <c r="F7" t="n">
-        <v>1811.47505</v>
+        <v>9935.058300000001</v>
       </c>
       <c r="G7" t="n">
-        <v>562.29934</v>
+        <v>3071.9462</v>
       </c>
       <c r="H7" t="n">
-        <v>240.59624</v>
+        <v>5301.0515</v>
       </c>
       <c r="I7" t="n">
-        <v>1211.09412</v>
+        <v>3600.2653</v>
       </c>
       <c r="J7" t="n">
-        <v>249.23046</v>
+        <v>3070.1721</v>
       </c>
       <c r="K7" t="n">
-        <v>2332.17093</v>
+        <v>13861.265</v>
       </c>
       <c r="L7" t="n">
-        <v>6253.88059</v>
+        <v>50624.8597</v>
       </c>
       <c r="M7" t="n">
-        <v>3765.83538</v>
+        <v>35688.185</v>
       </c>
       <c r="N7" t="n">
-        <v>3618.68196</v>
+        <v>15138.2801</v>
       </c>
       <c r="O7" t="n">
-        <v>429.0952</v>
+        <v>5108.2243</v>
       </c>
       <c r="P7" t="n">
-        <v>6968.99093</v>
+        <v>26952.5402</v>
       </c>
       <c r="Q7" t="n">
-        <v>706.21452</v>
+        <v>5731.8525</v>
       </c>
       <c r="R7" t="n">
-        <v>311.10178</v>
+        <v>2278.7137</v>
       </c>
       <c r="S7" t="n">
-        <v>3093.4651</v>
+        <v>10470.1612</v>
       </c>
       <c r="T7" t="n">
-        <v>234.44823</v>
+        <v>1900.294</v>
       </c>
       <c r="U7" t="n">
-        <v>10.35978</v>
+        <v>3513.3545</v>
       </c>
       <c r="V7" t="n">
-        <v>342.16811</v>
+        <v>3738.4683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>332.01082</v>
+        <v>3989.3929</v>
       </c>
       <c r="C8" t="n">
-        <v>32.80305</v>
+        <v>209.8283</v>
       </c>
       <c r="D8" t="n">
-        <v>824.38956</v>
+        <v>7101.9911</v>
       </c>
       <c r="E8" t="n">
-        <v>390.19461</v>
+        <v>1113.3211</v>
       </c>
       <c r="F8" t="n">
-        <v>2307.42681</v>
+        <v>10644.7759</v>
       </c>
       <c r="G8" t="n">
-        <v>619.88579</v>
+        <v>3386.6572</v>
       </c>
       <c r="H8" t="n">
-        <v>337.47033</v>
+        <v>8183.258</v>
       </c>
       <c r="I8" t="n">
-        <v>1536.10881</v>
+        <v>4580.5662</v>
       </c>
       <c r="J8" t="n">
-        <v>293.41063</v>
+        <v>3537.8502</v>
       </c>
       <c r="K8" t="n">
-        <v>3217.66441</v>
+        <v>14196.1753</v>
       </c>
       <c r="L8" t="n">
-        <v>8433.937620000001</v>
+        <v>56030.3699</v>
       </c>
       <c r="M8" t="n">
-        <v>5011.49102</v>
+        <v>40692.1575</v>
       </c>
       <c r="N8" t="n">
-        <v>4436.23809</v>
+        <v>15060.0056</v>
       </c>
       <c r="O8" t="n">
-        <v>493.27284</v>
+        <v>5670.0434</v>
       </c>
       <c r="P8" t="n">
-        <v>8671.90898</v>
+        <v>27392.6128</v>
       </c>
       <c r="Q8" t="n">
-        <v>755.71381</v>
+        <v>6772.3206</v>
       </c>
       <c r="R8" t="n">
-        <v>427.73303</v>
+        <v>2413.398</v>
       </c>
       <c r="S8" t="n">
-        <v>3908.45675</v>
+        <v>10957.3002</v>
       </c>
       <c r="T8" t="n">
-        <v>278.21499</v>
+        <v>1234.103</v>
       </c>
       <c r="U8" t="n">
-        <v>26.95544</v>
+        <v>6482.8291</v>
       </c>
       <c r="V8" t="n">
-        <v>440.21242</v>
+        <v>4213.1621</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>463.65991</v>
+        <v>3335.232</v>
       </c>
       <c r="C9" t="n">
-        <v>57.95838</v>
+        <v>276.389</v>
       </c>
       <c r="D9" t="n">
-        <v>935.93421</v>
+        <v>5648.601</v>
       </c>
       <c r="E9" t="n">
-        <v>393.88765</v>
+        <v>1111.845</v>
       </c>
       <c r="F9" t="n">
-        <v>2740.67663</v>
+        <v>10046.829</v>
       </c>
       <c r="G9" t="n">
-        <v>715.5233899999999</v>
+        <v>3380.314</v>
       </c>
       <c r="H9" t="n">
-        <v>381.44587</v>
+        <v>9144.691999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>1833.08335</v>
+        <v>3991.019</v>
       </c>
       <c r="J9" t="n">
-        <v>430.09234</v>
+        <v>3629.52</v>
       </c>
       <c r="K9" t="n">
-        <v>3768.0978</v>
+        <v>14900.179</v>
       </c>
       <c r="L9" t="n">
-        <v>10680.99229</v>
+        <v>57245.04</v>
       </c>
       <c r="M9" t="n">
-        <v>6678.99177</v>
+        <v>41218.534</v>
       </c>
       <c r="N9" t="n">
-        <v>5093.23744</v>
+        <v>13025.788</v>
       </c>
       <c r="O9" t="n">
-        <v>703.02436</v>
+        <v>5823.502</v>
       </c>
       <c r="P9" t="n">
-        <v>9980.69613</v>
+        <v>24251.917</v>
       </c>
       <c r="Q9" t="n">
-        <v>877.75072</v>
+        <v>5364.34</v>
       </c>
       <c r="R9" t="n">
-        <v>540.87517</v>
+        <v>2583.689</v>
       </c>
       <c r="S9" t="n">
-        <v>4502.29771</v>
+        <v>10102.434</v>
       </c>
       <c r="T9" t="n">
-        <v>287.92602</v>
+        <v>1192.555</v>
       </c>
       <c r="U9" t="n">
-        <v>23.87778</v>
+        <v>7588.121</v>
       </c>
       <c r="V9" t="n">
-        <v>519.0097500000001</v>
+        <v>4209.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>631.5403</v>
+        <v>2757.894</v>
       </c>
       <c r="C10" t="n">
-        <v>38.9867</v>
+        <v>282.0201</v>
       </c>
       <c r="D10" t="n">
-        <v>1464.7924</v>
+        <v>4837.3676</v>
       </c>
       <c r="E10" t="n">
-        <v>467.0137</v>
+        <v>1223.5889</v>
       </c>
       <c r="F10" t="n">
-        <v>3562.1276</v>
+        <v>9748.098599999999</v>
       </c>
       <c r="G10" t="n">
-        <v>961.3259</v>
+        <v>3329.3665</v>
       </c>
       <c r="H10" t="n">
-        <v>634.1014</v>
+        <v>12096.0519</v>
       </c>
       <c r="I10" t="n">
-        <v>2402.647</v>
+        <v>4000.3293</v>
       </c>
       <c r="J10" t="n">
-        <v>835.0055</v>
+        <v>3737.5653</v>
       </c>
       <c r="K10" t="n">
-        <v>6695.7334</v>
+        <v>17393.3312</v>
       </c>
       <c r="L10" t="n">
-        <v>16822.0131</v>
+        <v>58739.4575</v>
       </c>
       <c r="M10" t="n">
-        <v>9786.4827</v>
+        <v>39565.6785</v>
       </c>
       <c r="N10" t="n">
-        <v>6274.2108</v>
+        <v>12843.435</v>
       </c>
       <c r="O10" t="n">
-        <v>1330.2755</v>
+        <v>6097.1629</v>
       </c>
       <c r="P10" t="n">
-        <v>11930.7243</v>
+        <v>23344.0508</v>
       </c>
       <c r="Q10" t="n">
-        <v>1394.0593</v>
+        <v>4325.7354</v>
       </c>
       <c r="R10" t="n">
-        <v>714.0648</v>
+        <v>2483.885</v>
       </c>
       <c r="S10" t="n">
-        <v>5150.9921</v>
+        <v>9612.200800000001</v>
       </c>
       <c r="T10" t="n">
-        <v>369.5677</v>
+        <v>1302.0675</v>
       </c>
       <c r="U10" t="n">
-        <v>85.6887</v>
+        <v>10908.4644</v>
       </c>
       <c r="V10" t="n">
-        <v>632.6538</v>
+        <v>4038.4594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>836.38903</v>
+        <v>2459.5692</v>
       </c>
       <c r="C11" t="n">
-        <v>63.4086</v>
+        <v>260.9989</v>
       </c>
       <c r="D11" t="n">
-        <v>1745.40736</v>
+        <v>4677.458</v>
       </c>
       <c r="E11" t="n">
-        <v>541.65383</v>
+        <v>1257.0431</v>
       </c>
       <c r="F11" t="n">
-        <v>3671.18918</v>
+        <v>8687.4166</v>
       </c>
       <c r="G11" t="n">
-        <v>1109.58087</v>
+        <v>3447.3143</v>
       </c>
       <c r="H11" t="n">
-        <v>702.92139</v>
+        <v>16756.9743</v>
       </c>
       <c r="I11" t="n">
-        <v>2540.71609</v>
+        <v>4221.6971</v>
       </c>
       <c r="J11" t="n">
-        <v>981.11058</v>
+        <v>4070.9608</v>
       </c>
       <c r="K11" t="n">
-        <v>6346.98497</v>
+        <v>17078.1314</v>
       </c>
       <c r="L11" t="n">
-        <v>19821.68062</v>
+        <v>59860.3612</v>
       </c>
       <c r="M11" t="n">
-        <v>13041.58176</v>
+        <v>40713.3019</v>
       </c>
       <c r="N11" t="n">
-        <v>6943.9173</v>
+        <v>12294.2464</v>
       </c>
       <c r="O11" t="n">
-        <v>1551.90563</v>
+        <v>6676.404</v>
       </c>
       <c r="P11" t="n">
-        <v>13164.19198</v>
+        <v>23592.2235</v>
       </c>
       <c r="Q11" t="n">
-        <v>1659.32545</v>
+        <v>4088.8936</v>
       </c>
       <c r="R11" t="n">
-        <v>694.9546</v>
+        <v>1299.3512</v>
       </c>
       <c r="S11" t="n">
-        <v>5701.39209</v>
+        <v>10161.5362</v>
       </c>
       <c r="T11" t="n">
-        <v>345.56745</v>
+        <v>1352.958</v>
       </c>
       <c r="U11" t="n">
-        <v>148.20255</v>
+        <v>15443.6212</v>
       </c>
       <c r="V11" t="n">
-        <v>728.32544</v>
+        <v>4196.4219</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1255</v>
+        <v>1959.1084</v>
       </c>
       <c r="C12" t="n">
-        <v>75.90000000000001</v>
+        <v>212.6501</v>
       </c>
       <c r="D12" t="n">
-        <v>2511.7</v>
+        <v>5038.7024</v>
       </c>
       <c r="E12" t="n">
-        <v>604.1</v>
+        <v>1287.0797</v>
       </c>
       <c r="F12" t="n">
-        <v>4641.1</v>
+        <v>8622.3169</v>
       </c>
       <c r="G12" t="n">
-        <v>1309</v>
+        <v>3300.0684</v>
       </c>
       <c r="H12" t="n">
-        <v>1157.1</v>
+        <v>20830.7471</v>
       </c>
       <c r="I12" t="n">
-        <v>3298.3</v>
+        <v>4070.9154</v>
       </c>
       <c r="J12" t="n">
-        <v>1317.1</v>
+        <v>3963.2086</v>
       </c>
       <c r="K12" t="n">
-        <v>8309.5</v>
+        <v>15279.5152</v>
       </c>
       <c r="L12" t="n">
-        <v>27460.7</v>
+        <v>58188.7369</v>
       </c>
       <c r="M12" t="n">
-        <v>18608.7</v>
+        <v>41160.7957</v>
       </c>
       <c r="N12" t="n">
-        <v>8646.700000000001</v>
+        <v>10748.4837</v>
       </c>
       <c r="O12" t="n">
-        <v>1966.9</v>
+        <v>6475.8571</v>
       </c>
       <c r="P12" t="n">
-        <v>16176</v>
+        <v>22252.9201</v>
       </c>
       <c r="Q12" t="n">
-        <v>2399</v>
+        <v>4591.305</v>
       </c>
       <c r="R12" t="n">
-        <v>845</v>
+        <v>1625.3221</v>
       </c>
       <c r="S12" t="n">
-        <v>6804.8</v>
+        <v>10449.2729</v>
       </c>
       <c r="T12" t="n">
-        <v>386.1</v>
+        <v>1363.5023</v>
       </c>
       <c r="U12" t="n">
-        <v>320.8</v>
+        <v>19572.0261</v>
       </c>
       <c r="V12" t="n">
-        <v>1037.1</v>
+        <v>4319.9628</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1664.9059</v>
+        <v>2166.4997</v>
       </c>
       <c r="C13" t="n">
-        <v>94.13849999999999</v>
+        <v>203.6619</v>
       </c>
       <c r="D13" t="n">
-        <v>2847.6972</v>
+        <v>5193.8504</v>
       </c>
       <c r="E13" t="n">
-        <v>740.5838</v>
+        <v>1410.2792</v>
       </c>
       <c r="F13" t="n">
-        <v>6010.4764</v>
+        <v>9064.1314</v>
       </c>
       <c r="G13" t="n">
-        <v>1696.4202</v>
+        <v>3771.4529</v>
       </c>
       <c r="H13" t="n">
-        <v>1773.9225</v>
+        <v>24844.3088</v>
       </c>
       <c r="I13" t="n">
-        <v>4147.4687</v>
+        <v>3648.1562</v>
       </c>
       <c r="J13" t="n">
-        <v>1726.8606</v>
+        <v>4385.2767</v>
       </c>
       <c r="K13" t="n">
-        <v>11473.6401</v>
+        <v>19929.1834</v>
       </c>
       <c r="L13" t="n">
-        <v>33963.4962</v>
+        <v>66675.3189</v>
       </c>
       <c r="M13" t="n">
-        <v>21770.5528</v>
+        <v>44960.5184</v>
       </c>
       <c r="N13" t="n">
-        <v>10827.8844</v>
+        <v>11782.3109</v>
       </c>
       <c r="O13" t="n">
-        <v>2632.6476</v>
+        <v>7738.6402</v>
       </c>
       <c r="P13" t="n">
-        <v>19327.8363</v>
+        <v>23568.1079</v>
       </c>
       <c r="Q13" t="n">
-        <v>2675.2993</v>
+        <v>4701.9856</v>
       </c>
       <c r="R13" t="n">
-        <v>1206.1884</v>
+        <v>2238.8085</v>
       </c>
       <c r="S13" t="n">
-        <v>7541.6341</v>
+        <v>10605.8856</v>
       </c>
       <c r="T13" t="n">
-        <v>517.5876</v>
+        <v>1684.9619</v>
       </c>
       <c r="U13" t="n">
-        <v>527.6544</v>
+        <v>23632.1211</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.4834</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2067.01057</v>
-      </c>
-      <c r="C14" t="n">
-        <v>144.08919</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3863.80084</v>
-      </c>
-      <c r="E14" t="n">
-        <v>831.4911499999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6903.06255</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2078.07177</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2807.87495</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3610.18857</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2229.02696</v>
-      </c>
-      <c r="K14" t="n">
-        <v>12570.47146</v>
-      </c>
-      <c r="L14" t="n">
-        <v>38292.54223</v>
-      </c>
-      <c r="M14" t="n">
-        <v>24953.17722</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12195.44544</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3378.1246</v>
-      </c>
-      <c r="P14" t="n">
-        <v>21645.54384</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3606.51767</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1591.37262</v>
-      </c>
-      <c r="S14" t="n">
-        <v>8511.60138</v>
-      </c>
-      <c r="T14" t="n">
-        <v>728.41455</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1122.3</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2405.2982</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2826.87696</v>
-      </c>
-      <c r="C15" t="n">
-        <v>202.45044</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4726.39801</v>
-      </c>
-      <c r="E15" t="n">
-        <v>931.51536</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7759.18199</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3035.04344</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3494.83363</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3298.01896</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2620.26135</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14159.10732</v>
-      </c>
-      <c r="L15" t="n">
-        <v>45467.9062</v>
-      </c>
-      <c r="M15" t="n">
-        <v>30398.00772</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13784.61278</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4061.24435</v>
-      </c>
-      <c r="P15" t="n">
-        <v>24421.34205</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4380.63327</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1999.98295</v>
-      </c>
-      <c r="S15" t="n">
-        <v>9502.67519</v>
-      </c>
-      <c r="T15" t="n">
-        <v>858.07161</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1607.64329</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2694.4314</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3119.9658</v>
-      </c>
-      <c r="C16" t="n">
-        <v>148.58004</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5592.25368</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1019.51545</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8629.544320000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3310.63961</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4944.2736</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3478.44763</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2843.84838</v>
-      </c>
-      <c r="K16" t="n">
-        <v>15532.46211</v>
-      </c>
-      <c r="L16" t="n">
-        <v>51052.49933</v>
-      </c>
-      <c r="M16" t="n">
-        <v>34415.61628</v>
-      </c>
-      <c r="N16" t="n">
-        <v>14685.37845</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4605.00338</v>
-      </c>
-      <c r="P16" t="n">
-        <v>26030.47168</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5179.88592</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2353.28438</v>
-      </c>
-      <c r="S16" t="n">
-        <v>10110.98864</v>
-      </c>
-      <c r="T16" t="n">
-        <v>905.86227</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3006.12636</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3356.73731</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3486.905</v>
-      </c>
-      <c r="C17" t="n">
-        <v>178.758</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6036.2141</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1034.8852</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9935.058300000001</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3071.9462</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5301.0515</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3600.2653</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3070.1721</v>
-      </c>
-      <c r="K17" t="n">
-        <v>13861.265</v>
-      </c>
-      <c r="L17" t="n">
-        <v>50624.8597</v>
-      </c>
-      <c r="M17" t="n">
-        <v>35688.185</v>
-      </c>
-      <c r="N17" t="n">
-        <v>15138.2801</v>
-      </c>
-      <c r="O17" t="n">
-        <v>5108.2243</v>
-      </c>
-      <c r="P17" t="n">
-        <v>26952.5402</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5731.8525</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2278.7137</v>
-      </c>
-      <c r="S17" t="n">
-        <v>10470.1612</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1900.294</v>
-      </c>
-      <c r="U17" t="n">
-        <v>3513.3545</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3738.4683</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3989.3929</v>
-      </c>
-      <c r="C18" t="n">
-        <v>209.8283</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7101.9911</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1113.3211</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10644.7759</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3386.6572</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8183.258</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4580.5662</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3537.8502</v>
-      </c>
-      <c r="K18" t="n">
-        <v>14196.1753</v>
-      </c>
-      <c r="L18" t="n">
-        <v>56030.3699</v>
-      </c>
-      <c r="M18" t="n">
-        <v>40692.1575</v>
-      </c>
-      <c r="N18" t="n">
-        <v>15060.0056</v>
-      </c>
-      <c r="O18" t="n">
-        <v>5670.0434</v>
-      </c>
-      <c r="P18" t="n">
-        <v>27392.6128</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>6772.3206</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2413.398</v>
-      </c>
-      <c r="S18" t="n">
-        <v>10957.3002</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1234.103</v>
-      </c>
-      <c r="U18" t="n">
-        <v>6482.8291</v>
-      </c>
-      <c r="V18" t="n">
-        <v>4213.1621</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3335.232</v>
-      </c>
-      <c r="C19" t="n">
-        <v>276.389</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5648.601</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1111.845</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10046.829</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3380.314</v>
-      </c>
-      <c r="H19" t="n">
-        <v>9144.691999999999</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3991.019</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3629.52</v>
-      </c>
-      <c r="K19" t="n">
-        <v>14900.179</v>
-      </c>
-      <c r="L19" t="n">
-        <v>57245.04</v>
-      </c>
-      <c r="M19" t="n">
-        <v>41218.534</v>
-      </c>
-      <c r="N19" t="n">
-        <v>13025.788</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5823.502</v>
-      </c>
-      <c r="P19" t="n">
-        <v>24251.917</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5364.34</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2583.689</v>
-      </c>
-      <c r="S19" t="n">
-        <v>10102.434</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1192.555</v>
-      </c>
-      <c r="U19" t="n">
-        <v>7588.121</v>
-      </c>
-      <c r="V19" t="n">
-        <v>4209.15</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2757.894</v>
-      </c>
-      <c r="C20" t="n">
-        <v>282.0201</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4837.3676</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1223.5889</v>
-      </c>
-      <c r="F20" t="n">
-        <v>9748.098599999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3329.3665</v>
-      </c>
-      <c r="H20" t="n">
-        <v>12096.0519</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4000.3293</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3737.5653</v>
-      </c>
-      <c r="K20" t="n">
-        <v>17393.3312</v>
-      </c>
-      <c r="L20" t="n">
-        <v>58739.4575</v>
-      </c>
-      <c r="M20" t="n">
-        <v>39565.6785</v>
-      </c>
-      <c r="N20" t="n">
-        <v>12843.435</v>
-      </c>
-      <c r="O20" t="n">
-        <v>6097.1629</v>
-      </c>
-      <c r="P20" t="n">
-        <v>23344.0508</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4325.7354</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2483.885</v>
-      </c>
-      <c r="S20" t="n">
-        <v>9612.200800000001</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1302.0675</v>
-      </c>
-      <c r="U20" t="n">
-        <v>10908.4644</v>
-      </c>
-      <c r="V20" t="n">
-        <v>4038.4594</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2459.5692</v>
-      </c>
-      <c r="C21" t="n">
-        <v>260.9989</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4677.458</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1257.0431</v>
-      </c>
-      <c r="F21" t="n">
-        <v>8687.4166</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3447.3143</v>
-      </c>
-      <c r="H21" t="n">
-        <v>16756.9743</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4221.6971</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4070.9608</v>
-      </c>
-      <c r="K21" t="n">
-        <v>17078.1314</v>
-      </c>
-      <c r="L21" t="n">
-        <v>59860.3612</v>
-      </c>
-      <c r="M21" t="n">
-        <v>40713.3019</v>
-      </c>
-      <c r="N21" t="n">
-        <v>12294.2464</v>
-      </c>
-      <c r="O21" t="n">
-        <v>6676.404</v>
-      </c>
-      <c r="P21" t="n">
-        <v>23592.2235</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4088.8936</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1299.3512</v>
-      </c>
-      <c r="S21" t="n">
-        <v>10161.5362</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1352.958</v>
-      </c>
-      <c r="U21" t="n">
-        <v>15443.6212</v>
-      </c>
-      <c r="V21" t="n">
-        <v>4196.4219</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1959.1084</v>
-      </c>
-      <c r="C22" t="n">
-        <v>212.6501</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5038.7024</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1287.0797</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8622.3169</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3300.0684</v>
-      </c>
-      <c r="H22" t="n">
-        <v>20830.7471</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4070.9154</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3963.2086</v>
-      </c>
-      <c r="K22" t="n">
-        <v>15279.5152</v>
-      </c>
-      <c r="L22" t="n">
-        <v>58188.7369</v>
-      </c>
-      <c r="M22" t="n">
-        <v>41160.7957</v>
-      </c>
-      <c r="N22" t="n">
-        <v>10748.4837</v>
-      </c>
-      <c r="O22" t="n">
-        <v>6475.8571</v>
-      </c>
-      <c r="P22" t="n">
-        <v>22252.9201</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4591.305</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1625.3221</v>
-      </c>
-      <c r="S22" t="n">
-        <v>10449.2729</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1363.5023</v>
-      </c>
-      <c r="U22" t="n">
-        <v>19572.0261</v>
-      </c>
-      <c r="V22" t="n">
-        <v>4319.9628</v>
+        <v>5069.6306</v>
       </c>
     </row>
   </sheetData>
